--- a/controle_de_invest.xlsx
+++ b/controle_de_invest.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>Quanto investir por mês ?</t>
   </si>
@@ -83,18 +83,6 @@
   </si>
   <si>
     <t>Rendimento Carteira</t>
-  </si>
-  <si>
-    <t>Soma</t>
-  </si>
-  <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>Soma Acumulada</t>
-  </si>
-  <si>
-    <t>Contagem</t>
   </si>
   <si>
     <t>VALOR A SER INVESTIDO POR MÊS</t>
@@ -155,7 +143,7 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -717,42 +705,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -760,41 +724,11 @@
     <xf numFmtId="10" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="8" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="8" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -874,6 +808,60 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1006,6 +994,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1EF3-44EC-B863-7F09E8AA9BEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1021,6 +1014,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1EF3-44EC-B863-7F09E8AA9BEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1036,6 +1034,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1EF3-44EC-B863-7F09E8AA9BEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1051,6 +1054,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1EF3-44EC-B863-7F09E8AA9BEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1066,6 +1074,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1EF3-44EC-B863-7F09E8AA9BEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1081,6 +1094,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-1EF3-44EC-B863-7F09E8AA9BEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1172,22 +1190,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2258,8 +2276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2315,36 +2333,36 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
     </row>
     <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7">
+      <c r="C15" s="53"/>
+      <c r="D15" s="5">
         <v>5000</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="8">
+      <c r="C16" s="53"/>
+      <c r="D16" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11">
+      <c r="B17" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="7">
         <f>D15*30%</f>
         <v>1500</v>
       </c>
@@ -2356,57 +2374,57 @@
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="23"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15">
+      <c r="C21" s="60"/>
+      <c r="D21" s="9">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18">
+      <c r="C22" s="62"/>
+      <c r="D22" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="19">
+      <c r="C23" s="62"/>
+      <c r="D23" s="11">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29">
+      <c r="C24" s="64"/>
+      <c r="D24" s="13">
         <f>FV(taxa_mensal,qnt_anos*12,aporte*-1)</f>
         <v>16755.382799697527</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32">
+      <c r="C25" s="48"/>
+      <c r="D25" s="14">
         <f>D24*$D$16</f>
         <v>100.53229679818516</v>
       </c>
@@ -2415,352 +2433,352 @@
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22" t="s">
+      <c r="C27" s="50"/>
+      <c r="D27" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="41">
+      <c r="A28" s="23">
         <v>2</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="16">
         <f>FV($D$23,$A28*12,$D$21*-1)</f>
         <v>5445.5254595290435</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="17">
         <f>C28*Rendimento_carteira</f>
         <v>32.673152757174265</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="41">
+      <c r="A29" s="23">
         <v>5</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="19">
         <f>FV($D$23,$A29*12,$D$21*-1)</f>
         <v>16755.382799697527</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="17">
         <f>C29*Rendimento_carteira</f>
         <v>100.53229679818516</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="41">
+      <c r="A30" s="23">
         <v>10</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="19">
         <f>FV($D$23,$A30*12,$D$21*-1)</f>
         <v>48656.842506034438</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="17">
         <f>C30*Rendimento_carteira</f>
         <v>291.94105503620665</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="41">
+      <c r="A31" s="23">
         <v>20</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="19">
         <f>FV($D$23,$A31*12,$D$21*-1)</f>
         <v>225039.68001941612</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="17">
         <f>C31*Rendimento_carteira</f>
         <v>1350.2380801164968</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="41">
+      <c r="A32" s="23">
         <v>30</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="21">
         <f>FV($D$23,$A32*12,$D$21*-1)</f>
         <v>864433.93100094295</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="22">
         <f>C32*Rendimento_carteira</f>
         <v>5186.6035860056581</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="44"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="47"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="50">
+      <c r="A36" s="23"/>
+      <c r="B36" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="32">
         <f>aporte</f>
         <v>200</v>
       </c>
-      <c r="D36" s="48"/>
+      <c r="D36" s="30"/>
     </row>
     <row r="37" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="44"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
     </row>
     <row r="39" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="55" t="s">
+      <c r="A39" s="23"/>
+      <c r="B39" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
+      <c r="B40" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="36">
+        <f>VLOOKUP($C$35&amp;"-"&amp;B40,Planilha2!A1:D21,4,0)</f>
+        <v>0.32</v>
+      </c>
+      <c r="D40" s="41">
+        <f>C40*$C$36</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="23"/>
+      <c r="B41" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C41" s="36">
+        <f>VLOOKUP($C$35&amp;"-"&amp;B41,Planilha2!A2:D22,4,0)</f>
+        <v>0.35</v>
+      </c>
+      <c r="D41" s="41">
+        <f t="shared" ref="D41:D44" si="0">C41*$C$36</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
+      <c r="B42" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="56" t="s">
+      <c r="C42" s="36">
+        <f>VLOOKUP($C$35&amp;"-"&amp;B42,Planilha2!A3:D23,4,0)</f>
+        <v>0.08</v>
+      </c>
+      <c r="D42" s="41">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
+      <c r="B43" s="33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
-      <c r="B40" s="51" t="s">
+      <c r="C43" s="36">
+        <f>VLOOKUP($C$35&amp;"-"&amp;B43,Planilha2!A4:D24,4,0)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D43" s="41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
+      <c r="B44" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="54">
-        <f>VLOOKUP($C$35&amp;"-"&amp;B40,Planilha2!A1:D21,4,0)</f>
-        <v>0.3</v>
-      </c>
-      <c r="D40" s="59">
-        <f>C40*$C$36</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="54">
-        <f>VLOOKUP($C$35&amp;"-"&amp;B41,Planilha2!A2:D22,4,0)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="59">
-        <f t="shared" ref="D41:D44" si="0">C41*$C$36</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
-      <c r="B42" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="54">
-        <f>VLOOKUP($C$35&amp;"-"&amp;B42,Planilha2!A3:D23,4,0)</f>
+      <c r="C44" s="36">
+        <f>VLOOKUP($C$35&amp;"-"&amp;B44,Planilha2!A5:D25,4,0)</f>
         <v>0.1</v>
       </c>
-      <c r="D42" s="59">
+      <c r="D44" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
-      <c r="B43" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="54">
-        <f>VLOOKUP($C$35&amp;"-"&amp;B43,Planilha2!A4:D24,4,0)</f>
+    <row r="45" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B45" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="36">
+        <f>VLOOKUP($C$35&amp;"-"&amp;B45,Planilha2!A6:D26,4,0)</f>
         <v>0.1</v>
       </c>
-      <c r="D43" s="59">
-        <f t="shared" si="0"/>
+      <c r="D45" s="41">
+        <f>C45*$C$36</f>
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="41"/>
-      <c r="B44" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="54">
-        <f>VLOOKUP($C$35&amp;"-"&amp;B44,Planilha2!A5:D25,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B45" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="54">
-        <f>VLOOKUP($C$35&amp;"-"&amp;B45,Planilha2!A6:D26,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="59">
-        <f>C45*$C$36</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="46" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="41"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="58">
+      <c r="A46" s="23"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="40">
         <f>SUM(C40:C45)</f>
-        <v>1</v>
-      </c>
-      <c r="D46" s="56">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D46" s="38">
         <f>SUM(D40:D45)</f>
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="41"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="53"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="35"/>
     </row>
     <row r="48" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="53"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="35"/>
     </row>
     <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="53"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="35"/>
     </row>
     <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="41"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="53"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="35"/>
     </row>
     <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="53"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="35"/>
     </row>
     <row r="52" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="41"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="53"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="35"/>
     </row>
     <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="53"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="35"/>
     </row>
     <row r="54" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="41"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="53"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="35"/>
     </row>
     <row r="55" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="53"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="35"/>
     </row>
     <row r="56" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="53"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="35"/>
     </row>
     <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="53"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="35"/>
     </row>
     <row r="58" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="41"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="53"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="35"/>
     </row>
     <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="53"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="35"/>
     </row>
     <row r="60" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="41"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="53"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="35"/>
     </row>
     <row r="61" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="41"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="53"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="35"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="64"/>
+      <c r="B62" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35">
@@ -2791,16 +2809,16 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2809,10 +2827,10 @@
         <v>Conservador-PAPEL</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3">
         <v>0.3</v>
@@ -2824,10 +2842,10 @@
         <v>Conservador-TIJOLO</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3">
         <v>0.5</v>
@@ -2839,10 +2857,10 @@
         <v>Conservador-HIBRIDOS</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3">
         <v>0.1</v>
@@ -2854,10 +2872,10 @@
         <v>Conservador-FOFs</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3">
         <v>0.1</v>
@@ -2869,27 +2887,27 @@
         <v>Conservador-DESENVOLVIMENTO</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="60" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="str">
+    <row r="9" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HOTELARIAS</v>
       </c>
-      <c r="B9" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="62">
+      <c r="B9" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="44">
         <v>0</v>
       </c>
     </row>
@@ -2899,12 +2917,12 @@
         <v>Moderado-PAPEL</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="63">
+        <v>21</v>
+      </c>
+      <c r="D10" s="45">
         <v>0.32</v>
       </c>
     </row>
@@ -2914,12 +2932,12 @@
         <v>Moderado-TIJOLO</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="63">
+        <v>22</v>
+      </c>
+      <c r="D11" s="45">
         <v>0.35</v>
       </c>
     </row>
@@ -2929,12 +2947,12 @@
         <v>Moderado-HIBRIDOS</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="63">
+        <v>23</v>
+      </c>
+      <c r="D12" s="45">
         <v>0.08</v>
       </c>
     </row>
@@ -2944,12 +2962,12 @@
         <v>Moderado-FOFs</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="63">
+        <v>24</v>
+      </c>
+      <c r="D13" s="45">
         <v>0.05</v>
       </c>
     </row>
@@ -2959,27 +2977,27 @@
         <v>Moderado-DESENVOLVIMENTO</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="63">
+        <v>25</v>
+      </c>
+      <c r="D14" s="45">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="61" t="str">
+      <c r="A15" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HOTELARIAS</v>
       </c>
-      <c r="B15" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="61" t="s">
+      <c r="B15" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="62">
+      <c r="C15" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="44">
         <v>0.1</v>
       </c>
       <c r="E15" s="2"/>
@@ -2990,12 +3008,12 @@
         <v>Agressivo-PAPEL</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="63">
+        <v>21</v>
+      </c>
+      <c r="D16" s="45">
         <v>0.5</v>
       </c>
     </row>
@@ -3005,12 +3023,12 @@
         <v>Agressivo-TIJOLO</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="63">
+        <v>22</v>
+      </c>
+      <c r="D17" s="45">
         <v>0.1</v>
       </c>
     </row>
@@ -3020,12 +3038,12 @@
         <v>Agressivo-HIBRIDOS</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="63">
+        <v>23</v>
+      </c>
+      <c r="D18" s="45">
         <v>0.05</v>
       </c>
     </row>
@@ -3035,12 +3053,12 @@
         <v>Agressivo-FOFs</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="63">
+        <v>24</v>
+      </c>
+      <c r="D19" s="45">
         <v>0.05</v>
       </c>
     </row>
@@ -3050,12 +3068,12 @@
         <v>Agressivo-DESENVOLVIMENTO</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="63">
+        <v>25</v>
+      </c>
+      <c r="D20" s="45">
         <v>0.2</v>
       </c>
     </row>
@@ -3065,12 +3083,12 @@
         <v>Agressivo-HOTELARIAS</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="63">
+        <v>26</v>
+      </c>
+      <c r="D21" s="45">
         <v>0.1</v>
       </c>
     </row>

--- a/controle_de_invest.xlsx
+++ b/controle_de_invest.xlsx
@@ -76,9 +76,6 @@
     <t>DIVIDENDOS</t>
   </si>
   <si>
-    <t>CONFIGURAÇÕES</t>
-  </si>
-  <si>
     <t>Salário</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>Sugestão de Investimentos (30%)</t>
+  </si>
+  <si>
+    <t>PROJEÇÃO BASE</t>
   </si>
 </sst>
 </file>
@@ -809,18 +809,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,33 +861,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -2276,7 +2276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -2333,35 +2333,35 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+    </row>
+    <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-    </row>
-    <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="53"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="5">
         <v>5000</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="53"/>
+      <c r="B16" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="62"/>
       <c r="D16" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="55"/>
+      <c r="B17" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="64"/>
       <c r="D17" s="7">
         <f>D15*30%</f>
         <v>1500</v>
@@ -2374,56 +2374,56 @@
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="60"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="60"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="9">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="62"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="62"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="11">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="64"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="13">
         <f>FV(taxa_mensal,qnt_anos*12,aporte*-1)</f>
         <v>16755.382799697527</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="48"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="14">
         <f>D24*$D$16</f>
         <v>100.53229679818516</v>
@@ -2433,10 +2433,10 @@
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="12" t="s">
         <v>12</v>
       </c>
@@ -2536,17 +2536,17 @@
     <row r="35" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="32">
         <f>aporte</f>
@@ -2569,19 +2569,19 @@
     <row r="39" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="D39" s="38" t="s">
         <v>19</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="36">
         <f>VLOOKUP($C$35&amp;"-"&amp;B40,Planilha2!A1:D21,4,0)</f>
@@ -2595,7 +2595,7 @@
     <row r="41" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="36">
         <f>VLOOKUP($C$35&amp;"-"&amp;B41,Planilha2!A2:D22,4,0)</f>
@@ -2609,7 +2609,7 @@
     <row r="42" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" s="36">
         <f>VLOOKUP($C$35&amp;"-"&amp;B42,Planilha2!A3:D23,4,0)</f>
@@ -2623,7 +2623,7 @@
     <row r="43" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" s="36">
         <f>VLOOKUP($C$35&amp;"-"&amp;B43,Planilha2!A4:D24,4,0)</f>
@@ -2637,7 +2637,7 @@
     <row r="44" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" s="36">
         <f>VLOOKUP($C$35&amp;"-"&amp;B44,Planilha2!A5:D25,4,0)</f>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="45" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B45" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" s="36">
         <f>VLOOKUP($C$35&amp;"-"&amp;B45,Planilha2!A6:D26,4,0)</f>
@@ -2809,16 +2809,16 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2827,10 +2827,10 @@
         <v>Conservador-PAPEL</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3">
         <v>0.3</v>
@@ -2842,10 +2842,10 @@
         <v>Conservador-TIJOLO</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3">
         <v>0.5</v>
@@ -2857,10 +2857,10 @@
         <v>Conservador-HIBRIDOS</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3">
         <v>0.1</v>
@@ -2872,10 +2872,10 @@
         <v>Conservador-FOFs</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3">
         <v>0.1</v>
@@ -2887,10 +2887,10 @@
         <v>Conservador-DESENVOLVIMENTO</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -2902,10 +2902,10 @@
         <v>Conservador-HOTELARIAS</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="44">
         <v>0</v>
@@ -2917,10 +2917,10 @@
         <v>Moderado-PAPEL</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="45">
         <v>0.32</v>
@@ -2932,10 +2932,10 @@
         <v>Moderado-TIJOLO</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="45">
         <v>0.35</v>
@@ -2947,10 +2947,10 @@
         <v>Moderado-HIBRIDOS</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="45">
         <v>0.08</v>
@@ -2962,10 +2962,10 @@
         <v>Moderado-FOFs</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="45">
         <v>0.05</v>
@@ -2977,10 +2977,10 @@
         <v>Moderado-DESENVOLVIMENTO</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="45">
         <v>0.1</v>
@@ -2992,10 +2992,10 @@
         <v>Moderado-HOTELARIAS</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="44">
         <v>0.1</v>
@@ -3008,10 +3008,10 @@
         <v>Agressivo-PAPEL</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="45">
         <v>0.5</v>
@@ -3023,10 +3023,10 @@
         <v>Agressivo-TIJOLO</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="45">
         <v>0.1</v>
@@ -3038,10 +3038,10 @@
         <v>Agressivo-HIBRIDOS</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="45">
         <v>0.05</v>
@@ -3053,10 +3053,10 @@
         <v>Agressivo-FOFs</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="45">
         <v>0.05</v>
@@ -3068,10 +3068,10 @@
         <v>Agressivo-DESENVOLVIMENTO</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="45">
         <v>0.2</v>
@@ -3083,10 +3083,10 @@
         <v>Agressivo-HOTELARIAS</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="45">
         <v>0.1</v>
